--- a/try.xlsx
+++ b/try.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Try me</t>
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>SDs</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
   <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,6 +374,11 @@
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
